--- a/DestroyViruses/Assets/Tables/TableGameVirusWave.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameVirusWave.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\DestroyViruses\DestroyViruses\Assets\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yinlong/Documents/github/DestroyViruses/DestroyViruses/Assets/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14865"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="14860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,9 +76,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>Vector2</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -119,7 +124,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -129,7 +134,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -150,7 +155,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -160,8 +165,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,7 +175,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -187,7 +191,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -197,8 +201,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -208,35 +211,39 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="DengXian"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t/>
     </r>
   </si>
+  <si>
+    <t>TVector2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -244,7 +251,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +309,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -344,12 +351,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -379,12 +386,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -591,23 +598,23 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J48"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="29.625" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="19.125" customWidth="1"/>
-    <col min="9" max="9" width="13.875" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -659,62 +666,62 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -723,30 +730,30 @@
         <v>30</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2">
         <v>0.8</v>
@@ -755,30 +762,30 @@
         <v>30</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2">
         <v>0.6</v>
@@ -787,30 +794,30 @@
         <v>30</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -819,30 +826,30 @@
         <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
         <v>0.8</v>
@@ -851,30 +858,30 @@
         <v>30</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="2">
         <v>0.6</v>
@@ -883,30 +890,30 @@
         <v>30</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -915,30 +922,30 @@
         <v>30</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="2">
         <v>0.8</v>
@@ -947,30 +954,30 @@
         <v>30</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2">
         <v>0.6</v>
@@ -979,30 +986,30 @@
         <v>30</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1011,30 +1018,30 @@
         <v>30</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="2">
         <v>0.8</v>
@@ -1043,30 +1050,30 @@
         <v>30</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2">
         <v>0.6</v>
@@ -1075,30 +1082,30 @@
         <v>30</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1107,30 +1114,30 @@
         <v>30</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="2">
         <v>0.8</v>
@@ -1139,30 +1146,30 @@
         <v>30</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="2">
         <v>0.6</v>
@@ -1171,30 +1178,30 @@
         <v>30</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1203,30 +1210,30 @@
         <v>30</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="2">
         <v>0.8</v>
@@ -1235,30 +1242,30 @@
         <v>30</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="2">
         <v>0.6</v>
@@ -1267,30 +1274,30 @@
         <v>30</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1299,30 +1306,30 @@
         <v>30</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="2">
         <v>0.8</v>
@@ -1331,30 +1338,30 @@
         <v>30</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="2">
         <v>0.6</v>
@@ -1363,30 +1370,30 @@
         <v>30</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1395,30 +1402,30 @@
         <v>30</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="2">
         <v>0.8</v>
@@ -1427,30 +1434,30 @@
         <v>30</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="2">
         <v>0.6</v>
@@ -1459,30 +1466,30 @@
         <v>30</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -1491,30 +1498,30 @@
         <v>30</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G29" s="2">
         <v>0.8</v>
@@ -1523,30 +1530,30 @@
         <v>30</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G30" s="2">
         <v>0.6</v>
@@ -1555,30 +1562,30 @@
         <v>30</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -1587,30 +1594,30 @@
         <v>30</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32" s="2">
         <v>0.8</v>
@@ -1619,30 +1626,30 @@
         <v>30</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33" s="2">
         <v>0.6</v>
@@ -1651,30 +1658,30 @@
         <v>30</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -1683,30 +1690,30 @@
         <v>30</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G35" s="2">
         <v>0.8</v>
@@ -1715,30 +1722,30 @@
         <v>30</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36">
         <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36" s="2">
         <v>0.6</v>
@@ -1747,30 +1754,30 @@
         <v>30</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -1779,30 +1786,30 @@
         <v>30</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G38" s="2">
         <v>0.8</v>
@@ -1811,30 +1818,30 @@
         <v>30</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39">
         <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G39" s="2">
         <v>0.6</v>
@@ -1843,30 +1850,30 @@
         <v>30</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -1875,30 +1882,30 @@
         <v>30</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G41" s="2">
         <v>0.8</v>
@@ -1907,30 +1914,30 @@
         <v>30</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G42" s="2">
         <v>0.6</v>
@@ -1939,30 +1946,30 @@
         <v>30</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -1971,30 +1978,30 @@
         <v>30</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G44" s="2">
         <v>0.8</v>
@@ -2003,30 +2010,30 @@
         <v>30</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G45" s="2">
         <v>0.6</v>
@@ -2035,30 +2042,30 @@
         <v>30</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G46" s="2">
         <v>1</v>
@@ -2067,30 +2074,30 @@
         <v>30</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G47" s="2">
         <v>0.8</v>
@@ -2099,30 +2106,30 @@
         <v>30</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48">
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48" s="2">
         <v>0.6</v>
@@ -2131,10 +2138,10 @@
         <v>30</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2150,7 +2157,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,7 +2170,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
